--- a/data/hotels_by_city/Dallas/Dallas_shard_346.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_346.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="513">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>MassTraveler1963</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Had a wedding block of 30+ rooms.  The manager, Scott, was a true professional, and easy to work with.  Tina at the front desk has the place working like a well oiled machine.  Our guests were treated like royalty.  Jeannie had breakfast laid out each morning, and was able to keep up with our hungry group. All of the front end employees were very helpful and pleasant. Just a great hotel experience.More</t>
   </si>
   <si>
+    <t>sailkate</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r562521287-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>We spent one night at the Holiday Inn Express in Cleburne.  Didn't have a reservation but still had a good rate.  Staff was efficient and the room very clean.  It was a spacious comfortable room.  Breakfast was great with good coffee.  If I travel that way again I'll use this hotel.  Only concern was the pending charge on our debit was a little higher than the actual charge.  It was fixed but surprised us when we checked.  I know this is common but didn't know this hotel did it.  Just an advance notice would have been good.More</t>
   </si>
   <si>
+    <t>Gary B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r568747666-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -249,6 +258,9 @@
     <t>Hotel was a good rate and clean with good WiFi. Breakfast was nice. Good location and comfy room that are clean make it even better. Will return again my next trip in town. All of my traveling partners felt the same. More</t>
   </si>
   <si>
+    <t>kwwhit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r568546132-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -268,6 +280,9 @@
   </si>
   <si>
     <t>Stayed at laQuenta and it was bad. Moved to this hotel is much cleaner. Breakfast is good, cookies when I came back after work. Decent workout room. Staff was helpful. Used the office area multiple times and staff was helpful getting documents to print. Cleaning staff was friendly and always said hello. Issues: empty K-Y box on floor when we moved in, had a “bug” once, but hotel said they would take care of it. With they would vacuum better.More</t>
+  </si>
+  <si>
+    <t xml:space="preserve">christine  </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r560278478-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
@@ -300,6 +315,9 @@
 The breakfast was very good.  It was the same every day, most places I  have stayed for multiple days usually...Overall, I was pleased with our stay.  I had a very late check in, emailed this ahead of time and everything was ready when I arrived.  The room was nice, the beds were comfortable.  My favirite part was the ceiling fan.  The best feature I have seen in a hotel.  On Friday morning we checked out the pool.  There were about 15 unsupervised teens just milling around and sitting in the hot tub, no one had swim suits.  I understand it isn't the job of the hotel to babysit these kids but it was very frustrating.  Their web site states that the pool is heated.  It was not.  This was why I chose this hotel.   I went to the front desk to inquire.  She was very nice and said it would be fixed. It warmed up slightly during our stay but not enough to qualify as a heated pool.  The plus, we had the pool to ourselves every night.  This hotel seems more business oriented than family,  which was just fine for us.  It was pretty quiet.  The only noise issue I had were the very loud water pipes.  Any time a toilet was flushed or a shower turned on you could hear it.  Overall, didn't bother us a ton but it really could be a distraction for light sleepers.The breakfast was very good.  It was the same every day, most places I  have stayed for multiple days usually have something a little different. It was pretty hotel typical.  Eggs, biscuits and gravy, yogurt, a super fun pancake machine, cereal and oatmeal packages.   We were pleased with breakfast.This is a lower end priced hotel that i was happy with.  Easy to get to, close to the highway and convenient for our trip that was mostly in glen rose and in Fort Worth. .More</t>
   </si>
   <si>
+    <t>Niel and Nicky J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r556144222-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>I stayed here for a week on business.The staff are great; helpful and friendly.Breakfast is nice and kept well stocked.The swimming pool area is especially nice and there is also a 1/2 basketball court.Would recommend!More</t>
   </si>
   <si>
+    <t>Mary Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r555237278-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>We loved staying in a suite on the first floor. The hotel staff members were friendly and efficient. The breakfast room was kept clean and attendants were friendly and helpful. Located in a quiet area on Henderson Street, it is easy to locate, enter and exit. Only one entrance/exit into the hotel parking lot, so it seems safe. The hotel is not far from Wal-Mart, restaurants, movie theater, shopping areas, and fast food.More</t>
   </si>
   <si>
+    <t>Ryrimom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r528097127-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -378,6 +402,9 @@
     <t>Fast friendly service checking us in.  Property clean and maintained. Beds very comfortable and liked having firm and soft pillow options.  Bath and Body Works toiletries. Breakfast decent with warmed up biscuits and gravy, Kellogg's red berries cereal, boiled eggs, and a pretty decent southwest egg white omelette. Overall good experience!More</t>
   </si>
   <si>
+    <t>Heathhawks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r492596285-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -405,6 +432,9 @@
     <t>Very busy traveling baseball weekend with our son. Too tired to drive home had packed a bag in case and called Holiday Inn Express as we were playing at The Rail Roader Pro Park very early the next morning.  The staff were very nice and helpful. Our AC was cold, room and bathroom very clean. We could not ask for anymore. We needed and received a late check-out in case we wanted to freshen up between games which was very nice.  Easy check-in, friendly service, tv and internet worked fine also. There was a clean pool and nice big breakfast area.If in Cleburne, I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>Bubblestexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r489849598-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -429,6 +459,9 @@
     <t>I cannot say enough positives things about this HIExpress.  I first stayed here two years ago when the air conditioner broke in my room at a hotel down the street and the Holiday Inn staff welcomed me with open arms at 11pm to an icy cold room! But this weekend, they went above and beyond any typical hotel customer service.  They helped my family secure an item needed for our wedding reception.  Ashley at the front desk didn't bat an eye at our request.  It was completed within 15 minutes.  A-Mazing!! The breakfast staff are also wonderful-- so friendly and helpful too! Beds are super comfy and lots of goodies in the bathroom.  If you're in the Cleburne area, you can't go wrong staying here.  More</t>
   </si>
   <si>
+    <t>Rick S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r471512130-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -450,6 +483,9 @@
     <t>Everything great except wifi. Found out next morning they were changing internet providers and only half of hotel, not my half, was working properly. Room roomy and clean. Only issue at all wastub/shower needed cleaning and re-caulking. More</t>
   </si>
   <si>
+    <t>jimmyrozner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r470897410-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -471,6 +507,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Delandy143</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r447304473-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -489,6 +528,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Leta B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r436932614-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -507,6 +549,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>GunnerRetz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r423687772-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -525,12 +570,18 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>TriHealthtraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r422608673-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
     <t>422608673</t>
   </si>
   <si>
+    <t>Dwayne G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r403362189-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -558,6 +609,9 @@
     <t>More than enough... Staff was good. Very friendly. The room was clean and comfy. The breakfast was a typical hotel breakfast. I would certainly stay again. It was really late when I got there and the staff was more than friendly. I say , it's good enough !!! More</t>
   </si>
   <si>
+    <t>ttinker40</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r394900217-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -585,6 +639,9 @@
     <t>Took My grand kids for the weekend.The pool was great and the had so much fun playing. They had a great time. The staff was great. Breakfast was good, kids loved the pancakes. Will defiantly will do again!!!More</t>
   </si>
   <si>
+    <t>Catherine G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r394714302-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -606,6 +663,9 @@
     <t>Brandy was so friendly and helpful to us.  She was very knowledgeable about the areas and what to go and see.  Our room was very clean and all personal friendly and very polite.  Clean laundry room..exercise room...pool and hot tub very clean areasMore</t>
   </si>
   <si>
+    <t>littlemoma123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r393019810-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -630,6 +690,9 @@
     <t>Nice hotel,friendly staff,perfect location and breakfast provided, can't beat that! The rooms were clean, and the halls were quiet at night. We also enjoyed the pool and jacuzzi! We had an awesome weekend stay,and we will definitely be back.Thank you for a weekend!More</t>
   </si>
   <si>
+    <t>Tanna H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r391159445-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -654,6 +717,9 @@
     <t>Can I just say that after years of being aMarriott Rewards Member  that my recent stay at the Holiday Inn Express in Cleburne, Tx was enough to convince me to betray my loyalty to the Marriott brand and commit to becoming an IHG Rewards Member so that I'm able to enjoy the bountiful amenities and hospitality that the Cleburne hotel &amp; staff seemed to have in spades! My Jacuzzi suite was absolutely inviting. It was clean, smelled great, it had a relaxing vibe, and above all the bed was extraordinarily comfortable. The therapeutic jets of the Jacuzzi along w the convenient additional flat screen there was to watch in the private room adjoining the suite was to die for. That evening I misplaced my car keys and the staff there were so helpful and empathetic to my needs. They also assisted me w finding some info I needed for directions to my destination the following morning and were happy to make some copies and send a few faxes for me. The following morning thankfully I was up in time &amp; didn't miss breakfast, which I often do. There was a huge selection &amp; variety of things to eat- cereal, oatmeal, cinnamon rolls, danishes,muffins ,biscuits, gravy, sausage, bacon ,pancakes,omelets, and much more. And again I was treated like a queen and without ever having to leave my seat I was impressed when the staff paid so much attention to detail that...Can I just say that after years of being aMarriott Rewards Member  that my recent stay at the Holiday Inn Express in Cleburne, Tx was enough to convince me to betray my loyalty to the Marriott brand and commit to becoming an IHG Rewards Member so that I'm able to enjoy the bountiful amenities and hospitality that the Cleburne hotel &amp; staff seemed to have in spades! My Jacuzzi suite was absolutely inviting. It was clean, smelled great, it had a relaxing vibe, and above all the bed was extraordinarily comfortable. The therapeutic jets of the Jacuzzi along w the convenient additional flat screen there was to watch in the private room adjoining the suite was to die for. That evening I misplaced my car keys and the staff there were so helpful and empathetic to my needs. They also assisted me w finding some info I needed for directions to my destination the following morning and were happy to make some copies and send a few faxes for me. The following morning thankfully I was up in time &amp; didn't miss breakfast, which I often do. There was a huge selection &amp; variety of things to eat- cereal, oatmeal, cinnamon rolls, danishes,muffins ,biscuits, gravy, sausage, bacon ,pancakes,omelets, and much more. And again I was treated like a queen and without ever having to leave my seat I was impressed when the staff paid so much attention to detail that they anticipated when to bring me a refill on coffee and juice. I spoke w GM, Regina Bates, prior to leaving to personally thank her for the outstanding service &amp; accommodations I enjoyed while being a guest at her hotel &amp; commended her on doing such a good job on the hotel's overall condition and immaculately clean property, as well as compliment her top notch staff members who made me feel welcome, comfortable, &amp; important. No matter how insignificant and simple the tasks I requested their assistance with they took them on cheerfully &amp; genuinely seemed eager &amp; happy to help me w them. I will definitely be going back sometime, I really HOPE that my next time traveling and staying at another Holiday Inn Express will be as memorable as my stay here in Cleburne, Tx. Thanks again for everything! Katelyn White More</t>
   </si>
   <si>
+    <t>TrailingR0se</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r387029950-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -679,6 +745,9 @@
   </si>
   <si>
     <t>We were heading for a trip to the Big Bend area and wanted to get out of the Dallas  traffic for an easier start the next morning. We decided Cleburne would be a good place to begin our adventure. We selected the Holiday Inn Express because it was set back from the highway which we hoped would make it less noisy. We were quite pleased with our choice. The hotel was clean and quiet. The lady who checked us in was professional and friendly. The room was spacious and spotless, There were lots of plugs for charging phones, tablets, and readers The bed was comfortable and I appreciated that a choice of pillows was provided. There was plenty of lighted parking. Breakfast was adequate. The dining area was kept tidy. If we ever need to spend another night in Cleburne, we would not hesitate to stay at the Holiday Inn Express again.More</t>
+  </si>
+  <si>
+    <t>Leshay12</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r386620763-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
@@ -757,6 +826,9 @@
     <t>i stayed here for 2 weeks after i started my new job and lived here. my wife and kids came later. clean sheets every night, nice pool and hot tub, decent breakfast. they let me tip back a few beers and watch college football on the tv downstairsMore</t>
   </si>
   <si>
+    <t>jtchapman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r328643044-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -784,6 +856,9 @@
     <t>We come to Cleburne about twice a year on family business. This Hi Express is one of the best we have stayed in during our travels. Clean and well maintained with a great friendly staff and a very good free breakfast. Made a mistake and stayed at the Hampton Inn just down the road on our last trip just because I had some points to burn. Not so pretty good. We'll be back!More</t>
   </si>
   <si>
+    <t>Swede132</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r318111690-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -811,6 +886,9 @@
     <t>2nd floor king suite.  Bed was comfortable and had a choice of pillow types, A/C kept room cool and A/C unit was not noisy.  A/C unit had a constant-on fan feature.  Room had a coffee maker, fridge, microwave, bar sink, kitchen cabinets and an ironing board.  Bathroom was large and well appointed.  Room was clean, as was the hotel in general.  The hallway had a musty smell, but that might be from the water.  Bring your own bottled water.  Hotel breakfast was free and slightly better than average for free breakfast fare.  Thursday is guest appreciation from 5 to 7.  Free food, beer (Miller Lite and Bud Light) and wine.  Not the best stuff, but hey, it was free.  WiFi was free and worked well.  Lobby computers need updating.More</t>
   </si>
   <si>
+    <t>Erin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r316032136-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -835,6 +913,9 @@
     <t>We arrived late. Lobby was clean, attendant was nice. Our room was clean and the bed was so comfy. Pet friendly and lots of parking, which was a plus for us because we had our 32 foot cAmper that we were pulling. We would stay here again if ever in this are. More</t>
   </si>
   <si>
+    <t>Michael G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r298521448-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -862,6 +943,9 @@
     <t>What can I say? Holiday Inn Express in Cleburne, TX has always been an over and beyond hotel! I have stayed here with my family several times since 2009. General manager Regina Bates has continually exceeded our expectations through her personal attention and awesome hotel staff. Not once have we ever considered another hotel in Cleburne. Darlene and Sharon at the front desk are always glad to see us and make sure we are well taken care of. I truly appreciate the efforts made on our behalf every single time. I will always suggest this property to anyone considering a stay in Cleburne.Sincerely,Michael Benjamin GarciaMore</t>
   </si>
   <si>
+    <t>Playsgolf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r291164577-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -886,6 +970,9 @@
     <t>I have stayed here a half dozen times over the past couple of years, and the hotel has met expectations every time, rooms have always been ready at check in, are cleaned properly during the day, and if I have needed something, the staff has been attentive and responsive. I read a previous review critical of Regina, and I disagree with the reviewer's opinion, I have spoken with Regina on several occasions and have always found her to be helpful and professional, a specific instance was setting up a corporate rate for our company.More</t>
   </si>
   <si>
+    <t>Peggy T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r284722464-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -913,6 +1000,9 @@
     <t>I stayed here for a week-long business trip and was very impressed with the room cleanliness and courteous staff. Tabby at the front desk was especially kind! By the end of the week, she was wishing me a good work day or asking if my day went well, if she caught me on my way in or out. It is the kind of attentiveness you expect at luxury hotels, but not necessarily at small town hotels. We had a couple of minor issues with lights being burnt out and one tv not working, all of which were sorted out immediately. My only complaint was that the elevator broke down at the beginning of the week and wouldn't be fixed until a few days later. This was very inconvenient, as my coworkers and I had multiple boxes/equipment to carry in and out each day. However, the staff tried to be as helpful as possible about this. Overall, I had a great stay here and would highly recommend it for anyone staying in Cleburne.More</t>
   </si>
   <si>
+    <t>ELPScorch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r278787307-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -940,6 +1030,9 @@
     <t>What else can you ask for but a nice clean room, hotel. Comfortable bed and courteous staff. Was greeted nicely and given information on the facility and the amenities. Something you would expect from a larger city but nothing beats the small town hospitality. Highly recommended if you need a place to stay while driving by or visiting near by towns.More</t>
   </si>
   <si>
+    <t>Nick C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r260993810-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -964,6 +1057,9 @@
     <t>I stayed here for 2 nights whilst working near Keene. It's a nice hotel, excellent value. The rooms are nice, very clean and spacious. Friendly and helpful staff too. Plenty of shops and restaurants nearby. Would stay here again if ever back in Cleburne.More</t>
   </si>
   <si>
+    <t>anestho</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r245279975-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -991,6 +1087,9 @@
     <t>We stayed here for one night. 2 adults 2 kids &amp; 2 small dogs. The room was nice &amp; clean. The closet is small. There is room to extend it.  There is no in room safe. The thick curtains don't close all the way. A bright light outside made it hard for my husband to sleep.We were facing the parking lot. The free breakfast has a good variety. The eggs were terrible.  This inn is good for one or two people staying a short time. Bring a sleep mask.More</t>
   </si>
   <si>
+    <t>BigDavis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r238090662-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1039,6 +1138,9 @@
     <t>As nice as ever. We go to Cleburne a couple of times a year on family business and always stay here. The breakfast this time was mot outstanding above and beyond the usual Hi Express breakfast. Nice and friendly staff.  Thanks Regina.More</t>
   </si>
   <si>
+    <t>sumsully</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r197373785-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1069,6 +1171,9 @@
     <t>I checked into the Cleburne Holiday Inn Express two nights ago, and so far, it is absolutely FANTASTIC! The staff are extremely friendly and helpful. The housekeeping does an excellent job!The property is beautiful and well maintained with an indoor pool and outdoor putting green. This Hotel is Niceeeee! I would definitely recommend it to anyone visiting Cleburne! More</t>
   </si>
   <si>
+    <t>Cedar_Park_chump</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r191334093-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1096,6 +1201,9 @@
     <t>We stayed at the Holiday Inn Express as part of a large school group.  The rooms were nice and clean.  The staff went the extra mile to make our stay great.  The group had to be to an early morning event, and the staff opened up the free breakfast early to make sure our kids were fed before leaving.  The breakfast was more than muffins, apples, and donuts.  The breakfast even featured delicious omelets, biscuits, fresh pancakes, sausage, and gravy.  Thank-you for making our trip to Cleburne a success!  The rates were reasonable, I would recommend this hotel to anybody.More</t>
   </si>
   <si>
+    <t>pdchristian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r168905984-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1144,6 +1252,9 @@
     <t>My last review of this establishment was less than sterling.  As a result, the GM Regina B. responded and made it right on our next stay.  Had to go back to Cleburne unexpedly two weeks later.   We were upgraded as promised and our stay was quite pleasant under difficult family circumstances. Breakfast was good and on time.  Thanks to Regina B. and her staff.More</t>
   </si>
   <si>
+    <t>Guy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r167021268-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1192,6 +1303,9 @@
     <t>Stayed here 4-5 times over the last few years. Most were outstanding.  This stay sucked. Got a room with an adjoining door. Dips next door had a a party.  And were loud.  Breakfast was supposed to be at 5:30. Went down at 6:15 and NO food, with dips waiting around. The heater did not work on thermostat. We left .April 3.More</t>
   </si>
   <si>
+    <t>Slbarbour</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r155337445-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1243,6 +1357,9 @@
     <t>The HI Express in Cleburne continues to impress.  Good price and friendly service and the best breakfast for the price!!! We come to Cleburne about twice a year on family business and will continue to stay here until they do something untoward.More</t>
   </si>
   <si>
+    <t>aaron88260</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r145556026-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1294,6 +1411,9 @@
     <t>We attended a family function and arrived at a nice clean hotel fully packed with people.  After hours in the TX sun in the car driving it felt great to walk into a nice new cold room and relax a bit.  The room was located near the beautiful swimming pool which looked awesome.  I should've gotten up earlier because there were tons of kids that had already devoured the breakfast but there were a couple of pieces still left.  The lobby looks brand new and fresh.  I wish the location was a little closer into town or near restaurants but its decent.  I'd come back to this hotel for future trips because of the quality of hotel, the pool and decent pricing for the area.More</t>
   </si>
   <si>
+    <t>Rambotuba</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r126020465-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1312,6 +1432,9 @@
     <t>Spent a pleasant evening in Cleburne at the Holiday Inn. The highlight of this visit was swimming in the indoor pool and hot tub. It was a chilly March night and we needed to wash off some road grime. This play area also includes a basketball court and three hole putting green. Holiday Inn rarely disappoints with quality of the bed, linens, pillows, etc. We had a nice stay in the room.Breakfast was nice - good selection of eggs, biscuits, sausage, gravy, pancake machine, cereals, their famous cinnamon rolls, etc. Nice start to the day. Highly recommend this place for creature comforts.Kristina was a friendly host and checked in our party very quickly and efficiently. She made sure we had everything we needed for our brief stay.The only problem here was the slow Internet connections in the room. If that's important to you, the business center is conveniently located off the lobby.More</t>
   </si>
   <si>
+    <t>blondie2tx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r121752994-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1330,6 +1453,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>SuziBinSC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r114620736-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1375,6 +1501,9 @@
     <t>The staff was very nice and were on top of everything that was needed during my stay. The rooms were nicely cleaned and kept. When walking to my room, housekeeping was very nice which you dont see very often in hotels. I really enjoyed my stayed at this location and if I ever need to do business again in Cleburne, I will be using Holiday Inn Express again.More</t>
   </si>
   <si>
+    <t>ravidhaliwal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r17086741-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1393,6 +1522,9 @@
     <t>May 2008</t>
   </si>
   <si>
+    <t>bandit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r14167850-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1412,6 +1544,9 @@
   </si>
   <si>
     <t>Stayed at the Holiday Inn Express/Cleburne,TX for three nights.  I had a nice room with a comfortable bed, a sofa and a desk.  The bathroom was nice with granite countetops and tile in the shower and on the floor.  Lots of nice and thick towels.  The coffeemaker is one of those that makes one cup at the time, but the coffee tasted great.  The window was large, so I had plenty of light.  There was a nice new flat screen television.  I have the same brand at home.  Beautiful picture.  The breakfast was good.  They served eggs, sausage gravy, biscuits, fruit, bacon - cereal and oatmeal was available, along with lots of different breakfast breads.  Yogurt and boiled eggs were also served.Plenty of milk, juice and coffee available.  This hotel is close to Wal Mart, Grocery Stores and shopping - although none in real walking distance.The clerks and employees are very nice and helpful.Did not use the pool or hot tub, but they were inside with a little "sunning" area for those that want to tan.  There was also a bbq pit if you wanted to cook on your own.I would certainly choose this hotel on my next trip to Cleburne.More</t>
+  </si>
+  <si>
+    <t>Todco250</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r13560142-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
@@ -1934,43 +2069,47 @@
       <c r="A2" t="n">
         <v>56232</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>155038</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1988,56 +2127,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56232</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>155039</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -2053,56 +2196,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>56232</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>700</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2114,56 +2261,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>56232</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155040</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2175,56 +2326,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56232</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155041</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2236,56 +2391,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56232</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155042</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2297,56 +2456,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56232</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>5656</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2358,56 +2521,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56232</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155043</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2419,56 +2586,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>56232</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>155044</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2480,56 +2651,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>56232</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>155045</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2541,56 +2716,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>56232</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>5140</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2602,56 +2781,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>56232</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155046</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2669,50 +2852,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>56232</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155047</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2726,50 +2913,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>56232</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>155048</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2789,50 +2980,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>56232</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>155049</v>
+      </c>
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2846,32 +3041,36 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>56232</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>155050</v>
+      </c>
+      <c r="C17" t="s">
+        <v>182</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="J17" t="s"/>
       <c r="K17" t="s"/>
@@ -2888,51 +3087,52 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>56232</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>27870</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2944,56 +3144,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="X18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="Y18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>56232</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155051</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3011,56 +3215,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="X19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>56232</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>86815</v>
+      </c>
+      <c r="C20" t="s">
+        <v>205</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3078,56 +3286,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="X20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Y20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>56232</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>155052</v>
+      </c>
+      <c r="C21" t="s">
+        <v>213</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3139,56 +3351,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="X21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="Y21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>56232</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>155053</v>
+      </c>
+      <c r="C22" t="s">
+        <v>222</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3200,56 +3416,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="X22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="Y22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>56232</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>155054</v>
+      </c>
+      <c r="C23" t="s">
+        <v>231</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="J23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3263,56 +3483,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="X23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="Y23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>56232</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>155055</v>
+      </c>
+      <c r="C24" t="s">
+        <v>241</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="J24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="K24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3324,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="X24" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Y24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25">
@@ -3343,37 +3567,37 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3389,13 +3613,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="X25" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="Y25" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26">
@@ -3408,37 +3632,37 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="J26" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="K26" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="O26" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3454,56 +3678,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="X26" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="Y26" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>56232</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>139519</v>
+      </c>
+      <c r="C27" t="s">
+        <v>266</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="J27" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="K27" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3521,56 +3749,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="X27" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="Y27" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>56232</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155056</v>
+      </c>
+      <c r="C28" t="s">
+        <v>276</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="J28" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="K28" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3588,56 +3820,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="X28" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="Y28" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>56232</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>47285</v>
+      </c>
+      <c r="C29" t="s">
+        <v>286</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="J29" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="K29" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="L29" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3649,56 +3885,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="X29" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="Y29" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>56232</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>321</v>
+      </c>
+      <c r="C30" t="s">
+        <v>295</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="J30" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="K30" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="L30" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3714,47 +3954,51 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="X30" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="Y30" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>56232</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>155057</v>
+      </c>
+      <c r="C31" t="s">
+        <v>305</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="J31" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="K31" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="L31" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
@@ -3771,56 +4015,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="X31" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="Y31" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>56232</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>155058</v>
+      </c>
+      <c r="C32" t="s">
+        <v>314</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="J32" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="K32" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="L32" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="O32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3832,56 +4080,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="X32" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="Y32" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>56232</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>155059</v>
+      </c>
+      <c r="C33" t="s">
+        <v>324</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="J33" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="K33" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="L33" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -3897,47 +4149,51 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="X33" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="Y33" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>56232</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>26123</v>
+      </c>
+      <c r="C34" t="s">
+        <v>334</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="J34" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="K34" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="L34" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
@@ -3954,56 +4210,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="X34" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="Y34" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>56232</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>155060</v>
+      </c>
+      <c r="C35" t="s">
+        <v>343</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="J35" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="K35" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="L35" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="O35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4019,56 +4279,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="X35" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="Y35" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>56232</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>155061</v>
+      </c>
+      <c r="C36" t="s">
+        <v>353</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="J36" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="K36" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="L36" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4086,56 +4350,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="X36" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="Y36" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>56232</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>139519</v>
+      </c>
+      <c r="C37" t="s">
+        <v>266</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="J37" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="K37" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="L37" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4153,56 +4421,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="X37" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="Y37" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>56232</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>155062</v>
+      </c>
+      <c r="C38" t="s">
+        <v>370</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="J38" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="K38" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="L38" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="O38" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4214,56 +4486,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="X38" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="Y38" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>56232</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>14578</v>
+      </c>
+      <c r="C39" t="s">
+        <v>381</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="J39" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="K39" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="L39" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="O39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4285,56 +4561,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="X39" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="Y39" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>56232</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>155063</v>
+      </c>
+      <c r="C40" t="s">
+        <v>391</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="J40" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="K40" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="L40" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4356,56 +4636,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="X40" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="Y40" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>56232</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>139519</v>
+      </c>
+      <c r="C41" t="s">
+        <v>266</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="J41" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="K41" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="L41" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4427,56 +4711,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="X41" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="Y41" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>56232</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>155064</v>
+      </c>
+      <c r="C42" t="s">
+        <v>408</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="J42" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="K42" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="L42" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="O42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4498,56 +4786,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="X42" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="Y42" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>56232</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>139519</v>
+      </c>
+      <c r="C43" t="s">
+        <v>266</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="J43" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="K43" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="L43" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="O43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -4569,47 +4861,51 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="X43" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="Y43" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>56232</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>155065</v>
+      </c>
+      <c r="C44" t="s">
+        <v>425</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="J44" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="K44" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="L44" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
@@ -4636,56 +4932,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="X44" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="Y44" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>56232</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>139519</v>
+      </c>
+      <c r="C45" t="s">
+        <v>266</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>397</v>
+        <v>435</v>
       </c>
       <c r="J45" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="K45" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="L45" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4707,47 +5007,51 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="X45" t="s">
-        <v>403</v>
+        <v>441</v>
       </c>
       <c r="Y45" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>56232</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>155066</v>
+      </c>
+      <c r="C46" t="s">
+        <v>443</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="J46" t="s">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="K46" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="L46" t="s">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
@@ -4774,13 +5078,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="X46" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="Y46" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47">
@@ -4793,37 +5097,37 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="J47" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="K47" t="s">
-        <v>416</v>
+        <v>455</v>
       </c>
       <c r="L47" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4845,47 +5149,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
       <c r="X47" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="Y47" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>56232</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>155067</v>
+      </c>
+      <c r="C48" t="s">
+        <v>461</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="J48" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="K48" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="L48" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
@@ -4912,56 +5220,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
       <c r="X48" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="Y48" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>56232</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>155068</v>
+      </c>
+      <c r="C49" t="s">
+        <v>468</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="J49" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="K49" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="L49" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="O49" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4985,50 +5297,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>56232</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155069</v>
+      </c>
+      <c r="C50" t="s">
+        <v>475</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>435</v>
+        <v>477</v>
       </c>
       <c r="J50" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="K50" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="L50" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="O50" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5046,13 +5362,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="X50" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="Y50" t="s">
-        <v>441</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51">
@@ -5065,37 +5381,37 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="J51" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="K51" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="L51" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="O51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5117,56 +5433,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="X51" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="Y51" t="s">
-        <v>448</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>56232</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>155070</v>
+      </c>
+      <c r="C52" t="s">
+        <v>491</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="J52" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="K52" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="L52" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="O52" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5190,50 +5510,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>56232</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>155071</v>
+      </c>
+      <c r="C53" t="s">
+        <v>498</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="J53" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="K53" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="L53" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="O53" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5257,50 +5581,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>56232</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>6594</v>
+      </c>
+      <c r="C54" t="s">
+        <v>506</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>463</v>
+        <v>508</v>
       </c>
       <c r="J54" t="s">
-        <v>464</v>
+        <v>509</v>
       </c>
       <c r="K54" t="s">
-        <v>465</v>
+        <v>510</v>
       </c>
       <c r="L54" t="s">
-        <v>466</v>
+        <v>511</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>467</v>
+        <v>512</v>
       </c>
       <c r="O54" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5324,7 +5652,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>466</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_346.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_346.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="514">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,42 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>MassTraveler1963</t>
-  </si>
-  <si>
-    <t>06/12/2018</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r602462058-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>55638</t>
+  </si>
+  <si>
+    <t>673117</t>
+  </si>
+  <si>
+    <t>602462058</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>Best in Cleburne</t>
+  </si>
+  <si>
+    <t>We stayed one night in a queen suite while visiting relatives. The suite was roomy, beds were good. Small kitchenette but don't plan on cooking Thanksgiving dinner. Front desk was very efficient and helpful. Housekeeping staff were also friendly, and room was clean. We had a very pleasant stay and will return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tina S, AGM at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>We stayed one night in a queen suite while visiting relatives. The suite was roomy, beds were good. Small kitchenette but don't plan on cooking Thanksgiving dinner. Front desk was very efficient and helpful. Housekeeping staff were also friendly, and room was clean. We had a very pleasant stay and will return.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r573826631-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
-    <t>55638</t>
-  </si>
-  <si>
-    <t>673117</t>
-  </si>
-  <si>
     <t>573826631</t>
   </si>
   <si>
@@ -192,7 +213,55 @@
     <t>Had a wedding block of 30+ rooms.  The manager, Scott, was a true professional, and easy to work with.  Tina at the front desk has the place working like a well oiled machine.  Our guests were treated like royalty.  Jeannie had breakfast laid out each morning, and was able to keep up with our hungry group. All of the front end employees were very helpful and pleasant. Just a great hotel experience.More</t>
   </si>
   <si>
-    <t>sailkate</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r568747666-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>568747666</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Hotel was a good rate and clean with good WiFi. Breakfast was nice. Good location and comfy room that are clean make it even better. Will return again my next trip in town. All of my traveling partners felt the same. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Scott S, Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Hotel was a good rate and clean with good WiFi. Breakfast was nice. Good location and comfy room that are clean make it even better. Will return again my next trip in town. All of my traveling partners felt the same. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r568546132-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>568546132</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>Month stay moving to area</t>
+  </si>
+  <si>
+    <t>Stayed at laQuenta and it was bad. Moved to this hotel is much cleaner. Breakfast is good, cookies when I came back after work. Decent workout room. Staff was helpful. Used the office area multiple times and staff was helpful getting documents to print. Cleaning staff was friendly and always said hello. Issues: empty K-Y box on floor when we moved in, had a “bug” once, but hotel said they would take care of it. With they would vacuum better.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Stayed at laQuenta and it was bad. Moved to this hotel is much cleaner. Breakfast is good, cookies when I came back after work. Decent workout room. Staff was helpful. Used the office area multiple times and staff was helpful getting documents to print. Cleaning staff was friendly and always said hello. Issues: empty K-Y box on floor when we moved in, had a “bug” once, but hotel said they would take care of it. With they would vacuum better.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r562521287-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
@@ -223,66 +292,6 @@
   </si>
   <si>
     <t>We spent one night at the Holiday Inn Express in Cleburne.  Didn't have a reservation but still had a good rate.  Staff was efficient and the room very clean.  It was a spacious comfortable room.  Breakfast was great with good coffee.  If I travel that way again I'll use this hotel.  Only concern was the pending charge on our debit was a little higher than the actual charge.  It was fixed but surprised us when we checked.  I know this is common but didn't know this hotel did it.  Just an advance notice would have been good.More</t>
-  </si>
-  <si>
-    <t>Gary B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r568747666-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
-  </si>
-  <si>
-    <t>568747666</t>
-  </si>
-  <si>
-    <t>03/25/2018</t>
-  </si>
-  <si>
-    <t>Nice hotel</t>
-  </si>
-  <si>
-    <t>Hotel was a good rate and clean with good WiFi. Breakfast was nice. Good location and comfy room that are clean make it even better. Will return again my next trip in town. All of my traveling partners felt the same. MoreShow less</t>
-  </si>
-  <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Scott S, Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded March 27, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 27, 2018</t>
-  </si>
-  <si>
-    <t>Hotel was a good rate and clean with good WiFi. Breakfast was nice. Good location and comfy room that are clean make it even better. Will return again my next trip in town. All of my traveling partners felt the same. More</t>
-  </si>
-  <si>
-    <t>kwwhit</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r568546132-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
-  </si>
-  <si>
-    <t>568546132</t>
-  </si>
-  <si>
-    <t>03/24/2018</t>
-  </si>
-  <si>
-    <t>Month stay moving to area</t>
-  </si>
-  <si>
-    <t>Stayed at laQuenta and it was bad. Moved to this hotel is much cleaner. Breakfast is good, cookies when I came back after work. Decent workout room. Staff was helpful. Used the office area multiple times and staff was helpful getting documents to print. Cleaning staff was friendly and always said hello. Issues: empty K-Y box on floor when we moved in, had a “bug” once, but hotel said they would take care of it. With they would vacuum better.MoreShow less</t>
-  </si>
-  <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t>Stayed at laQuenta and it was bad. Moved to this hotel is much cleaner. Breakfast is good, cookies when I came back after work. Decent workout room. Staff was helpful. Used the office area multiple times and staff was helpful getting documents to print. Cleaning staff was friendly and always said hello. Issues: empty K-Y box on floor when we moved in, had a “bug” once, but hotel said they would take care of it. With they would vacuum better.More</t>
-  </si>
-  <si>
-    <t xml:space="preserve">christine  </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r560278478-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
@@ -315,9 +324,6 @@
 The breakfast was very good.  It was the same every day, most places I  have stayed for multiple days usually...Overall, I was pleased with our stay.  I had a very late check in, emailed this ahead of time and everything was ready when I arrived.  The room was nice, the beds were comfortable.  My favirite part was the ceiling fan.  The best feature I have seen in a hotel.  On Friday morning we checked out the pool.  There were about 15 unsupervised teens just milling around and sitting in the hot tub, no one had swim suits.  I understand it isn't the job of the hotel to babysit these kids but it was very frustrating.  Their web site states that the pool is heated.  It was not.  This was why I chose this hotel.   I went to the front desk to inquire.  She was very nice and said it would be fixed. It warmed up slightly during our stay but not enough to qualify as a heated pool.  The plus, we had the pool to ourselves every night.  This hotel seems more business oriented than family,  which was just fine for us.  It was pretty quiet.  The only noise issue I had were the very loud water pipes.  Any time a toilet was flushed or a shower turned on you could hear it.  Overall, didn't bother us a ton but it really could be a distraction for light sleepers.The breakfast was very good.  It was the same every day, most places I  have stayed for multiple days usually have something a little different. It was pretty hotel typical.  Eggs, biscuits and gravy, yogurt, a super fun pancake machine, cereal and oatmeal packages.   We were pleased with breakfast.This is a lower end priced hotel that i was happy with.  Easy to get to, close to the highway and convenient for our trip that was mostly in glen rose and in Fort Worth. .More</t>
   </si>
   <si>
-    <t>Niel and Nicky J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r556144222-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -342,9 +348,6 @@
     <t>I stayed here for a week on business.The staff are great; helpful and friendly.Breakfast is nice and kept well stocked.The swimming pool area is especially nice and there is also a 1/2 basketball court.Would recommend!More</t>
   </si>
   <si>
-    <t>Mary Y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r555237278-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -372,9 +375,6 @@
     <t>We loved staying in a suite on the first floor. The hotel staff members were friendly and efficient. The breakfast room was kept clean and attendants were friendly and helpful. Located in a quiet area on Henderson Street, it is easy to locate, enter and exit. Only one entrance/exit into the hotel parking lot, so it seems safe. The hotel is not far from Wal-Mart, restaurants, movie theater, shopping areas, and fast food.More</t>
   </si>
   <si>
-    <t>Ryrimom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r528097127-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -402,9 +402,6 @@
     <t>Fast friendly service checking us in.  Property clean and maintained. Beds very comfortable and liked having firm and soft pillow options.  Bath and Body Works toiletries. Breakfast decent with warmed up biscuits and gravy, Kellogg's red berries cereal, boiled eggs, and a pretty decent southwest egg white omelette. Overall good experience!More</t>
   </si>
   <si>
-    <t>Heathhawks</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r492596285-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -432,9 +429,6 @@
     <t>Very busy traveling baseball weekend with our son. Too tired to drive home had packed a bag in case and called Holiday Inn Express as we were playing at The Rail Roader Pro Park very early the next morning.  The staff were very nice and helpful. Our AC was cold, room and bathroom very clean. We could not ask for anymore. We needed and received a late check-out in case we wanted to freshen up between games which was very nice.  Easy check-in, friendly service, tv and internet worked fine also. There was a clean pool and nice big breakfast area.If in Cleburne, I will definitely stay here again.More</t>
   </si>
   <si>
-    <t>Bubblestexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r489849598-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -459,9 +453,6 @@
     <t>I cannot say enough positives things about this HIExpress.  I first stayed here two years ago when the air conditioner broke in my room at a hotel down the street and the Holiday Inn staff welcomed me with open arms at 11pm to an icy cold room! But this weekend, they went above and beyond any typical hotel customer service.  They helped my family secure an item needed for our wedding reception.  Ashley at the front desk didn't bat an eye at our request.  It was completed within 15 minutes.  A-Mazing!! The breakfast staff are also wonderful-- so friendly and helpful too! Beds are super comfy and lots of goodies in the bathroom.  If you're in the Cleburne area, you can't go wrong staying here.  More</t>
   </si>
   <si>
-    <t>Rick S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r471512130-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -483,9 +474,6 @@
     <t>Everything great except wifi. Found out next morning they were changing internet providers and only half of hotel, not my half, was working properly. Room roomy and clean. Only issue at all wastub/shower needed cleaning and re-caulking. More</t>
   </si>
   <si>
-    <t>jimmyrozner</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r470897410-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -507,9 +495,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Delandy143</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r447304473-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -528,9 +513,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>Leta B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r436932614-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -549,9 +531,6 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>GunnerRetz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r423687772-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -570,16 +549,31 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>TriHealthtraveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r422608673-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
     <t>422608673</t>
   </si>
   <si>
-    <t>Dwayne G</t>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Christmas in Texas</t>
+  </si>
+  <si>
+    <t>Slept well in comfortable queen bed-hotel is quiet,clean &amp; close to our relatives house.Breakfast is OK.Staff friendly.There  is a pool,exercise room &amp; small snack shop,Wi-Fi &amp; internet connection.Also free copy o USA &amp; local paper.I miss the "old" days when chocolate chip cookies were @desk in the evening,MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Regina B, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded September 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2016</t>
+  </si>
+  <si>
+    <t>Slept well in comfortable queen bed-hotel is quiet,clean &amp; close to our relatives house.Breakfast is OK.Staff friendly.There  is a pool,exercise room &amp; small snack shop,Wi-Fi &amp; internet connection.Also free copy o USA &amp; local paper.I miss the "old" days when chocolate chip cookies were @desk in the evening,More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r403362189-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
@@ -609,9 +603,6 @@
     <t>More than enough... Staff was good. Very friendly. The room was clean and comfy. The breakfast was a typical hotel breakfast. I would certainly stay again. It was really late when I got there and the staff was more than friendly. I say , it's good enough !!! More</t>
   </si>
   <si>
-    <t>ttinker40</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r394900217-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -639,9 +630,6 @@
     <t>Took My grand kids for the weekend.The pool was great and the had so much fun playing. They had a great time. The staff was great. Breakfast was good, kids loved the pancakes. Will defiantly will do again!!!More</t>
   </si>
   <si>
-    <t>Catherine G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r394714302-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -663,9 +651,6 @@
     <t>Brandy was so friendly and helpful to us.  She was very knowledgeable about the areas and what to go and see.  Our room was very clean and all personal friendly and very polite.  Clean laundry room..exercise room...pool and hot tub very clean areasMore</t>
   </si>
   <si>
-    <t>littlemoma123</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r393019810-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -690,9 +675,6 @@
     <t>Nice hotel,friendly staff,perfect location and breakfast provided, can't beat that! The rooms were clean, and the halls were quiet at night. We also enjoyed the pool and jacuzzi! We had an awesome weekend stay,and we will definitely be back.Thank you for a weekend!More</t>
   </si>
   <si>
-    <t>Tanna H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r391159445-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -717,9 +699,6 @@
     <t>Can I just say that after years of being aMarriott Rewards Member  that my recent stay at the Holiday Inn Express in Cleburne, Tx was enough to convince me to betray my loyalty to the Marriott brand and commit to becoming an IHG Rewards Member so that I'm able to enjoy the bountiful amenities and hospitality that the Cleburne hotel &amp; staff seemed to have in spades! My Jacuzzi suite was absolutely inviting. It was clean, smelled great, it had a relaxing vibe, and above all the bed was extraordinarily comfortable. The therapeutic jets of the Jacuzzi along w the convenient additional flat screen there was to watch in the private room adjoining the suite was to die for. That evening I misplaced my car keys and the staff there were so helpful and empathetic to my needs. They also assisted me w finding some info I needed for directions to my destination the following morning and were happy to make some copies and send a few faxes for me. The following morning thankfully I was up in time &amp; didn't miss breakfast, which I often do. There was a huge selection &amp; variety of things to eat- cereal, oatmeal, cinnamon rolls, danishes,muffins ,biscuits, gravy, sausage, bacon ,pancakes,omelets, and much more. And again I was treated like a queen and without ever having to leave my seat I was impressed when the staff paid so much attention to detail that...Can I just say that after years of being aMarriott Rewards Member  that my recent stay at the Holiday Inn Express in Cleburne, Tx was enough to convince me to betray my loyalty to the Marriott brand and commit to becoming an IHG Rewards Member so that I'm able to enjoy the bountiful amenities and hospitality that the Cleburne hotel &amp; staff seemed to have in spades! My Jacuzzi suite was absolutely inviting. It was clean, smelled great, it had a relaxing vibe, and above all the bed was extraordinarily comfortable. The therapeutic jets of the Jacuzzi along w the convenient additional flat screen there was to watch in the private room adjoining the suite was to die for. That evening I misplaced my car keys and the staff there were so helpful and empathetic to my needs. They also assisted me w finding some info I needed for directions to my destination the following morning and were happy to make some copies and send a few faxes for me. The following morning thankfully I was up in time &amp; didn't miss breakfast, which I often do. There was a huge selection &amp; variety of things to eat- cereal, oatmeal, cinnamon rolls, danishes,muffins ,biscuits, gravy, sausage, bacon ,pancakes,omelets, and much more. And again I was treated like a queen and without ever having to leave my seat I was impressed when the staff paid so much attention to detail that they anticipated when to bring me a refill on coffee and juice. I spoke w GM, Regina Bates, prior to leaving to personally thank her for the outstanding service &amp; accommodations I enjoyed while being a guest at her hotel &amp; commended her on doing such a good job on the hotel's overall condition and immaculately clean property, as well as compliment her top notch staff members who made me feel welcome, comfortable, &amp; important. No matter how insignificant and simple the tasks I requested their assistance with they took them on cheerfully &amp; genuinely seemed eager &amp; happy to help me w them. I will definitely be going back sometime, I really HOPE that my next time traveling and staying at another Holiday Inn Express will be as memorable as my stay here in Cleburne, Tx. Thanks again for everything! Katelyn White More</t>
   </si>
   <si>
-    <t>TrailingR0se</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r387029950-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -745,9 +724,6 @@
   </si>
   <si>
     <t>We were heading for a trip to the Big Bend area and wanted to get out of the Dallas  traffic for an easier start the next morning. We decided Cleburne would be a good place to begin our adventure. We selected the Holiday Inn Express because it was set back from the highway which we hoped would make it less noisy. We were quite pleased with our choice. The hotel was clean and quiet. The lady who checked us in was professional and friendly. The room was spacious and spotless, There were lots of plugs for charging phones, tablets, and readers The bed was comfortable and I appreciated that a choice of pillows was provided. There was plenty of lighted parking. Breakfast was adequate. The dining area was kept tidy. If we ever need to spend another night in Cleburne, we would not hesitate to stay at the Holiday Inn Express again.More</t>
-  </si>
-  <si>
-    <t>Leshay12</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r386620763-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
@@ -826,9 +802,6 @@
     <t>i stayed here for 2 weeks after i started my new job and lived here. my wife and kids came later. clean sheets every night, nice pool and hot tub, decent breakfast. they let me tip back a few beers and watch college football on the tv downstairsMore</t>
   </si>
   <si>
-    <t>jtchapman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r328643044-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -856,9 +829,6 @@
     <t>We come to Cleburne about twice a year on family business. This Hi Express is one of the best we have stayed in during our travels. Clean and well maintained with a great friendly staff and a very good free breakfast. Made a mistake and stayed at the Hampton Inn just down the road on our last trip just because I had some points to burn. Not so pretty good. We'll be back!More</t>
   </si>
   <si>
-    <t>Swede132</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r318111690-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -886,9 +856,6 @@
     <t>2nd floor king suite.  Bed was comfortable and had a choice of pillow types, A/C kept room cool and A/C unit was not noisy.  A/C unit had a constant-on fan feature.  Room had a coffee maker, fridge, microwave, bar sink, kitchen cabinets and an ironing board.  Bathroom was large and well appointed.  Room was clean, as was the hotel in general.  The hallway had a musty smell, but that might be from the water.  Bring your own bottled water.  Hotel breakfast was free and slightly better than average for free breakfast fare.  Thursday is guest appreciation from 5 to 7.  Free food, beer (Miller Lite and Bud Light) and wine.  Not the best stuff, but hey, it was free.  WiFi was free and worked well.  Lobby computers need updating.More</t>
   </si>
   <si>
-    <t>Erin H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r316032136-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -913,9 +880,6 @@
     <t>We arrived late. Lobby was clean, attendant was nice. Our room was clean and the bed was so comfy. Pet friendly and lots of parking, which was a plus for us because we had our 32 foot cAmper that we were pulling. We would stay here again if ever in this are. More</t>
   </si>
   <si>
-    <t>Michael G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r298521448-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -943,9 +907,6 @@
     <t>What can I say? Holiday Inn Express in Cleburne, TX has always been an over and beyond hotel! I have stayed here with my family several times since 2009. General manager Regina Bates has continually exceeded our expectations through her personal attention and awesome hotel staff. Not once have we ever considered another hotel in Cleburne. Darlene and Sharon at the front desk are always glad to see us and make sure we are well taken care of. I truly appreciate the efforts made on our behalf every single time. I will always suggest this property to anyone considering a stay in Cleburne.Sincerely,Michael Benjamin GarciaMore</t>
   </si>
   <si>
-    <t>Playsgolf</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r291164577-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -970,9 +931,6 @@
     <t>I have stayed here a half dozen times over the past couple of years, and the hotel has met expectations every time, rooms have always been ready at check in, are cleaned properly during the day, and if I have needed something, the staff has been attentive and responsive. I read a previous review critical of Regina, and I disagree with the reviewer's opinion, I have spoken with Regina on several occasions and have always found her to be helpful and professional, a specific instance was setting up a corporate rate for our company.More</t>
   </si>
   <si>
-    <t>Peggy T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r284722464-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1000,9 +958,6 @@
     <t>I stayed here for a week-long business trip and was very impressed with the room cleanliness and courteous staff. Tabby at the front desk was especially kind! By the end of the week, she was wishing me a good work day or asking if my day went well, if she caught me on my way in or out. It is the kind of attentiveness you expect at luxury hotels, but not necessarily at small town hotels. We had a couple of minor issues with lights being burnt out and one tv not working, all of which were sorted out immediately. My only complaint was that the elevator broke down at the beginning of the week and wouldn't be fixed until a few days later. This was very inconvenient, as my coworkers and I had multiple boxes/equipment to carry in and out each day. However, the staff tried to be as helpful as possible about this. Overall, I had a great stay here and would highly recommend it for anyone staying in Cleburne.More</t>
   </si>
   <si>
-    <t>ELPScorch</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r278787307-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1030,9 +985,6 @@
     <t>What else can you ask for but a nice clean room, hotel. Comfortable bed and courteous staff. Was greeted nicely and given information on the facility and the amenities. Something you would expect from a larger city but nothing beats the small town hospitality. Highly recommended if you need a place to stay while driving by or visiting near by towns.More</t>
   </si>
   <si>
-    <t>Nick C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r260993810-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1057,9 +1009,6 @@
     <t>I stayed here for 2 nights whilst working near Keene. It's a nice hotel, excellent value. The rooms are nice, very clean and spacious. Friendly and helpful staff too. Plenty of shops and restaurants nearby. Would stay here again if ever back in Cleburne.More</t>
   </si>
   <si>
-    <t>anestho</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r245279975-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1087,9 +1036,6 @@
     <t>We stayed here for one night. 2 adults 2 kids &amp; 2 small dogs. The room was nice &amp; clean. The closet is small. There is room to extend it.  There is no in room safe. The thick curtains don't close all the way. A bright light outside made it hard for my husband to sleep.We were facing the parking lot. The free breakfast has a good variety. The eggs were terrible.  This inn is good for one or two people staying a short time. Bring a sleep mask.More</t>
   </si>
   <si>
-    <t>BigDavis</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r238090662-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1138,9 +1084,6 @@
     <t>As nice as ever. We go to Cleburne a couple of times a year on family business and always stay here. The breakfast this time was mot outstanding above and beyond the usual Hi Express breakfast. Nice and friendly staff.  Thanks Regina.More</t>
   </si>
   <si>
-    <t>sumsully</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r197373785-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1171,9 +1114,6 @@
     <t>I checked into the Cleburne Holiday Inn Express two nights ago, and so far, it is absolutely FANTASTIC! The staff are extremely friendly and helpful. The housekeeping does an excellent job!The property is beautiful and well maintained with an indoor pool and outdoor putting green. This Hotel is Niceeeee! I would definitely recommend it to anyone visiting Cleburne! More</t>
   </si>
   <si>
-    <t>Cedar_Park_chump</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r191334093-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1201,9 +1141,6 @@
     <t>We stayed at the Holiday Inn Express as part of a large school group.  The rooms were nice and clean.  The staff went the extra mile to make our stay great.  The group had to be to an early morning event, and the staff opened up the free breakfast early to make sure our kids were fed before leaving.  The breakfast was more than muffins, apples, and donuts.  The breakfast even featured delicious omelets, biscuits, fresh pancakes, sausage, and gravy.  Thank-you for making our trip to Cleburne a success!  The rates were reasonable, I would recommend this hotel to anybody.More</t>
   </si>
   <si>
-    <t>pdchristian</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r168905984-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1252,9 +1189,6 @@
     <t>My last review of this establishment was less than sterling.  As a result, the GM Regina B. responded and made it right on our next stay.  Had to go back to Cleburne unexpedly two weeks later.   We were upgraded as promised and our stay was quite pleasant under difficult family circumstances. Breakfast was good and on time.  Thanks to Regina B. and her staff.More</t>
   </si>
   <si>
-    <t>Guy H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r167021268-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1303,9 +1237,6 @@
     <t>Stayed here 4-5 times over the last few years. Most were outstanding.  This stay sucked. Got a room with an adjoining door. Dips next door had a a party.  And were loud.  Breakfast was supposed to be at 5:30. Went down at 6:15 and NO food, with dips waiting around. The heater did not work on thermostat. We left .April 3.More</t>
   </si>
   <si>
-    <t>Slbarbour</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r155337445-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1357,9 +1288,6 @@
     <t>The HI Express in Cleburne continues to impress.  Good price and friendly service and the best breakfast for the price!!! We come to Cleburne about twice a year on family business and will continue to stay here until they do something untoward.More</t>
   </si>
   <si>
-    <t>aaron88260</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r145556026-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1411,9 +1339,6 @@
     <t>We attended a family function and arrived at a nice clean hotel fully packed with people.  After hours in the TX sun in the car driving it felt great to walk into a nice new cold room and relax a bit.  The room was located near the beautiful swimming pool which looked awesome.  I should've gotten up earlier because there were tons of kids that had already devoured the breakfast but there were a couple of pieces still left.  The lobby looks brand new and fresh.  I wish the location was a little closer into town or near restaurants but its decent.  I'd come back to this hotel for future trips because of the quality of hotel, the pool and decent pricing for the area.More</t>
   </si>
   <si>
-    <t>Rambotuba</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r126020465-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1432,9 +1357,6 @@
     <t>Spent a pleasant evening in Cleburne at the Holiday Inn. The highlight of this visit was swimming in the indoor pool and hot tub. It was a chilly March night and we needed to wash off some road grime. This play area also includes a basketball court and three hole putting green. Holiday Inn rarely disappoints with quality of the bed, linens, pillows, etc. We had a nice stay in the room.Breakfast was nice - good selection of eggs, biscuits, sausage, gravy, pancake machine, cereals, their famous cinnamon rolls, etc. Nice start to the day. Highly recommend this place for creature comforts.Kristina was a friendly host and checked in our party very quickly and efficiently. She made sure we had everything we needed for our brief stay.The only problem here was the slow Internet connections in the room. If that's important to you, the business center is conveniently located off the lobby.More</t>
   </si>
   <si>
-    <t>blondie2tx</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r121752994-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1453,9 +1375,6 @@
     <t>April 2011</t>
   </si>
   <si>
-    <t>SuziBinSC</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r114620736-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1501,7 +1420,97 @@
     <t>The staff was very nice and were on top of everything that was needed during my stay. The rooms were nicely cleaned and kept. When walking to my room, housekeeping was very nice which you dont see very often in hotels. I really enjoyed my stayed at this location and if I ever need to do business again in Cleburne, I will be using Holiday Inn Express again.More</t>
   </si>
   <si>
-    <t>ravidhaliwal</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r55051363-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>55051363</t>
+  </si>
+  <si>
+    <t>02/02/2010</t>
+  </si>
+  <si>
+    <t>Another quality Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>I am impressed with the Holiday Inn Express chain.  I've stayed at several in the past two months.   This room, like others I've stayed in, was attractive, well designed and clean.  The bed and bedding was outstanding.   One can get a good night sleep.   There was plenty of counter space in the bathroom.  The WiFi was good. The only quibble I had with the room was that the windows were missing shear panels, which give you some privacy during the day.    Unfortunately, we had some noise in the hallways because two basketball teams were staying.  The breakfast was generally the same as others in the chain, which includes a hot egg dish each day and biscuits and sausage gravy every day.  The lobby and dining area were  spacious and attractive. Unfortunately, we had some noise in the hallways from members of two basketball teams staying there.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>I am impressed with the Holiday Inn Express chain.  I've stayed at several in the past two months.   This room, like others I've stayed in, was attractive, well designed and clean.  The bed and bedding was outstanding.   One can get a good night sleep.   There was plenty of counter space in the bathroom.  The WiFi was good. The only quibble I had with the room was that the windows were missing shear panels, which give you some privacy during the day.    Unfortunately, we had some noise in the hallways because two basketball teams were staying.  The breakfast was generally the same as others in the chain, which includes a hot egg dish each day and biscuits and sausage gravy every day.  The lobby and dining area were  spacious and attractive. Unfortunately, we had some noise in the hallways from members of two basketball teams staying there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r54543176-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>54543176</t>
+  </si>
+  <si>
+    <t>01/27/2010</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>What a great relaxing place...The staff was perfectly friendly --helpful--and just shows that the management team knows how to treat their staff..Otherwise the staff would be unhappy...I wished I had a couple of more nights to stay ...The morning and evening front desk personnel was great...the lady that runs the breakfast bar was truly helpful and friendly..room was beautiful...and very clean...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r44430932-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>44430932</t>
+  </si>
+  <si>
+    <t>09/25/2009</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>This place is quiet... I slept very well and the hotel is well kept...</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r20100838-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>20100838</t>
+  </si>
+  <si>
+    <t>09/15/2008</t>
+  </si>
+  <si>
+    <t>Always happy</t>
+  </si>
+  <si>
+    <t>This is a great hotel!  The rooms are very cozy and clean and the gym access is great.   I will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r17195543-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>17195543</t>
+  </si>
+  <si>
+    <t>06/24/2008</t>
+  </si>
+  <si>
+    <t>WOW - Quite Impressive</t>
+  </si>
+  <si>
+    <t>WOW - I just have to say that this place exceeded my expectations! I travel ALOT for business and generally stay in Full Service 4 and 5 star Hotels -- and this hotel was just as nice as the hotels I am accustomed to. I stayed at this Holiday Inn Express in Cleburne, TX for three nights while on a business trip. This Hotel looks Brand New, and everything is top of the line. Plasma TV in the rooms -- nice modern furniture -- Granite Countertops in Bathroom -- and VERY Comfy Bed!! The Staff was very friendly and more than accomodating to my requests.The hot breakfast was great. Also - I do not golf, but I thought it was pretty cool to see a putting green outside the hotel!! I do plan to stay at this hotel for all of my future business trips to Cleburne -- and Highly recommend it to anyone planning to visit the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>WOW - I just have to say that this place exceeded my expectations! I travel ALOT for business and generally stay in Full Service 4 and 5 star Hotels -- and this hotel was just as nice as the hotels I am accustomed to. I stayed at this Holiday Inn Express in Cleburne, TX for three nights while on a business trip. This Hotel looks Brand New, and everything is top of the line. Plasma TV in the rooms -- nice modern furniture -- Granite Countertops in Bathroom -- and VERY Comfy Bed!! The Staff was very friendly and more than accomodating to my requests.The hot breakfast was great. Also - I do not golf, but I thought it was pretty cool to see a putting green outside the hotel!! I do plan to stay at this hotel for all of my future business trips to Cleburne -- and Highly recommend it to anyone planning to visit the area!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r17086741-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
@@ -1522,9 +1531,6 @@
     <t>May 2008</t>
   </si>
   <si>
-    <t>bandit</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r14167850-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1544,9 +1550,6 @@
   </si>
   <si>
     <t>Stayed at the Holiday Inn Express/Cleburne,TX for three nights.  I had a nice room with a comfortable bed, a sofa and a desk.  The bathroom was nice with granite countetops and tile in the shower and on the floor.  Lots of nice and thick towels.  The coffeemaker is one of those that makes one cup at the time, but the coffee tasted great.  The window was large, so I had plenty of light.  There was a nice new flat screen television.  I have the same brand at home.  Beautiful picture.  The breakfast was good.  They served eggs, sausage gravy, biscuits, fruit, bacon - cereal and oatmeal was available, along with lots of different breakfast breads.  Yogurt and boiled eggs were also served.Plenty of milk, juice and coffee available.  This hotel is close to Wal Mart, Grocery Stores and shopping - although none in real walking distance.The clerks and employees are very nice and helpful.Did not use the pool or hot tub, but they were inside with a little "sunning" area for those that want to tan.  There was also a bbq pit if you wanted to cook on your own.I would certainly choose this hotel on my next trip to Cleburne.More</t>
-  </si>
-  <si>
-    <t>Todco250</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d673117-r13560142-Holiday_Inn_Express_Hotel_Suites-Cleburne_Texas.html</t>
@@ -2069,187 +2072,167 @@
       <c r="A2" t="n">
         <v>56232</v>
       </c>
-      <c r="B2" t="n">
-        <v>155038</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56232</v>
       </c>
-      <c r="B3" t="n">
-        <v>155039</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="n">
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
         <v>4</v>
       </c>
-      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>56232</v>
       </c>
-      <c r="B4" t="n">
-        <v>700</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2261,60 +2244,56 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>56232</v>
       </c>
-      <c r="B5" t="n">
-        <v>155040</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2326,125 +2305,121 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56232</v>
       </c>
-      <c r="B6" t="n">
-        <v>155041</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
         <v>4</v>
       </c>
-      <c r="N6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56232</v>
       </c>
-      <c r="B7" t="n">
-        <v>155042</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2456,60 +2431,56 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56232</v>
       </c>
-      <c r="B8" t="n">
-        <v>5656</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2521,60 +2492,56 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56232</v>
       </c>
-      <c r="B9" t="n">
-        <v>155043</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2586,60 +2553,56 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>56232</v>
       </c>
-      <c r="B10" t="n">
-        <v>155044</v>
-      </c>
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2651,60 +2614,56 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>56232</v>
       </c>
-      <c r="B11" t="n">
-        <v>155045</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2716,60 +2675,56 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>56232</v>
       </c>
-      <c r="B12" t="n">
-        <v>5140</v>
-      </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2781,303 +2736,299 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="X12" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="Y12" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>56232</v>
       </c>
-      <c r="B13" t="n">
-        <v>155046</v>
-      </c>
-      <c r="C13" t="s">
-        <v>153</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="O13" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>72</v>
+      </c>
+      <c r="X13" t="s">
+        <v>73</v>
+      </c>
       <c r="Y13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>56232</v>
       </c>
-      <c r="B14" t="n">
-        <v>155047</v>
-      </c>
-      <c r="C14" t="s">
-        <v>161</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>56232</v>
       </c>
-      <c r="B15" t="n">
-        <v>155048</v>
-      </c>
-      <c r="C15" t="s">
-        <v>168</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>56232</v>
       </c>
-      <c r="B16" t="n">
-        <v>155049</v>
-      </c>
-      <c r="C16" t="s">
-        <v>175</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>56232</v>
       </c>
-      <c r="B17" t="n">
-        <v>155050</v>
-      </c>
-      <c r="C17" t="s">
-        <v>182</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>184</v>
-      </c>
-      <c r="J17" t="s"/>
-      <c r="K17" t="s"/>
-      <c r="L17" t="s"/>
-      <c r="M17" t="s"/>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
@@ -3087,194 +3038,185 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>56232</v>
       </c>
-      <c r="B18" t="n">
-        <v>27870</v>
-      </c>
-      <c r="C18" t="s">
-        <v>185</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="X18" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>56232</v>
       </c>
-      <c r="B19" t="n">
-        <v>155051</v>
-      </c>
-      <c r="C19" t="s">
-        <v>195</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="J19" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="X19" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="Y19" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>56232</v>
       </c>
-      <c r="B20" t="n">
-        <v>86815</v>
-      </c>
-      <c r="C20" t="s">
-        <v>205</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>198</v>
       </c>
-      <c r="K20" t="s">
-        <v>208</v>
-      </c>
-      <c r="L20" t="s">
-        <v>209</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>201</v>
-      </c>
       <c r="O20" t="s">
-        <v>54</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="n">
         <v>5</v>
       </c>
@@ -3286,125 +3228,123 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="X20" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="Y20" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>56232</v>
       </c>
-      <c r="B21" t="n">
-        <v>155052</v>
-      </c>
-      <c r="C21" t="s">
-        <v>213</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="X21" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>56232</v>
       </c>
-      <c r="B22" t="n">
-        <v>155053</v>
-      </c>
-      <c r="C22" t="s">
-        <v>222</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="J22" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3416,145 +3356,137 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="X22" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="Y22" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>56232</v>
       </c>
-      <c r="B23" t="n">
-        <v>155054</v>
-      </c>
-      <c r="C23" t="s">
-        <v>231</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="J23" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="K23" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="O23" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="X23" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="Y23" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>56232</v>
       </c>
-      <c r="B24" t="n">
-        <v>155055</v>
-      </c>
-      <c r="C24" t="s">
-        <v>241</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="J24" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="X24" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="Y24" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25">
@@ -3567,59 +3499,55 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="J25" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>3</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="X25" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="Y25" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
@@ -3632,115 +3560,109 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="J26" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="K26" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="O26" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="X26" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="Y26" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>56232</v>
       </c>
-      <c r="B27" t="n">
-        <v>139519</v>
-      </c>
-      <c r="C27" t="s">
-        <v>266</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="J27" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="K27" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="O27" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -3749,69 +3671,65 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="X27" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="Y27" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>56232</v>
       </c>
-      <c r="B28" t="n">
-        <v>155056</v>
-      </c>
-      <c r="C28" t="s">
-        <v>276</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="J28" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="K28" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="O28" t="s">
-        <v>65</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3820,256 +3738,246 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="X28" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="Y28" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>56232</v>
       </c>
-      <c r="B29" t="n">
-        <v>47285</v>
-      </c>
-      <c r="C29" t="s">
-        <v>286</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="J29" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="K29" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="O29" t="s">
-        <v>65</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="X29" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="Y29" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>56232</v>
       </c>
-      <c r="B30" t="n">
-        <v>321</v>
-      </c>
-      <c r="C30" t="s">
-        <v>295</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="J30" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="X30" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="Y30" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>56232</v>
       </c>
-      <c r="B31" t="n">
-        <v>155057</v>
-      </c>
-      <c r="C31" t="s">
-        <v>305</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="J31" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="K31" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
+      <c r="N31" t="s">
+        <v>289</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="X31" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="Y31" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>56232</v>
       </c>
-      <c r="B32" t="n">
-        <v>155058</v>
-      </c>
-      <c r="C32" t="s">
-        <v>314</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="J32" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="K32" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s">
-        <v>320</v>
-      </c>
-      <c r="O32" t="s">
-        <v>76</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
@@ -4080,339 +3988,313 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="X32" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="Y32" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>56232</v>
       </c>
-      <c r="B33" t="n">
-        <v>155059</v>
-      </c>
-      <c r="C33" t="s">
-        <v>324</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="J33" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="X33" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="Y33" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>56232</v>
       </c>
-      <c r="B34" t="n">
-        <v>26123</v>
-      </c>
-      <c r="C34" t="s">
-        <v>334</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="J34" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="K34" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>315</v>
+      </c>
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
         <v>4</v>
       </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="X34" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="Y34" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>56232</v>
       </c>
-      <c r="B35" t="n">
-        <v>155060</v>
-      </c>
-      <c r="C35" t="s">
-        <v>343</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="J35" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="K35" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
-      </c>
-      <c r="N35" t="s">
-        <v>349</v>
-      </c>
-      <c r="O35" t="s">
-        <v>76</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="X35" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="Y35" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>56232</v>
       </c>
-      <c r="B36" t="n">
-        <v>155061</v>
-      </c>
-      <c r="C36" t="s">
-        <v>353</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="J36" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="K36" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="L36" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="O36" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="X36" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="Y36" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>56232</v>
       </c>
-      <c r="B37" t="n">
-        <v>139519</v>
-      </c>
-      <c r="C37" t="s">
-        <v>266</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="J37" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="K37" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="L37" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="O37" t="s">
-        <v>65</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>5</v>
@@ -4421,200 +4303,184 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="X37" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="Y37" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>56232</v>
       </c>
-      <c r="B38" t="n">
-        <v>155062</v>
-      </c>
-      <c r="C38" t="s">
-        <v>370</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="J38" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="K38" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="O38" t="s">
-        <v>377</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="X38" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="Y38" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>56232</v>
       </c>
-      <c r="B39" t="n">
-        <v>14578</v>
-      </c>
-      <c r="C39" t="s">
-        <v>381</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="J39" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="K39" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="L39" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="O39" t="s">
-        <v>76</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="X39" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="Y39" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>56232</v>
       </c>
-      <c r="B40" t="n">
-        <v>155063</v>
-      </c>
-      <c r="C40" t="s">
-        <v>391</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="J40" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="K40" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4636,72 +4502,68 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="X40" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="Y40" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>56232</v>
       </c>
-      <c r="B41" t="n">
-        <v>139519</v>
-      </c>
-      <c r="C41" t="s">
-        <v>266</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="J41" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="K41" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="O41" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
@@ -4711,380 +4573,364 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="X41" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="Y41" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>56232</v>
       </c>
-      <c r="B42" t="n">
-        <v>155064</v>
-      </c>
-      <c r="C42" t="s">
-        <v>408</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="J42" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="K42" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="L42" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="O42" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R42" t="n">
         <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="X42" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="Y42" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>56232</v>
       </c>
-      <c r="B43" t="n">
-        <v>139519</v>
-      </c>
-      <c r="C43" t="s">
-        <v>266</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="J43" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="K43" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="L43" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="O43" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
         <v>3</v>
       </c>
-      <c r="Q43" t="n">
-        <v>1</v>
-      </c>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="X43" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="Y43" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>56232</v>
       </c>
-      <c r="B44" t="n">
-        <v>155065</v>
-      </c>
-      <c r="C44" t="s">
-        <v>425</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="J44" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="K44" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="L44" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
-      </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>385</v>
+      </c>
+      <c r="O44" t="s">
+        <v>88</v>
+      </c>
       <c r="P44" t="n">
         <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="X44" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="Y44" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>56232</v>
       </c>
-      <c r="B45" t="n">
-        <v>139519</v>
-      </c>
-      <c r="C45" t="s">
-        <v>266</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="J45" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="K45" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="L45" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
-      </c>
-      <c r="N45" t="s">
-        <v>439</v>
-      </c>
-      <c r="O45" t="s">
-        <v>54</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="X45" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="Y45" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>56232</v>
       </c>
-      <c r="B46" t="n">
-        <v>155066</v>
-      </c>
-      <c r="C46" t="s">
-        <v>443</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="J46" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="K46" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="L46" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>416</v>
+      </c>
+      <c r="O46" t="s">
+        <v>61</v>
+      </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="X46" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="Y46" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47">
@@ -5097,109 +4943,105 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="J47" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="K47" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="L47" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
-      </c>
-      <c r="N47" t="s">
-        <v>457</v>
-      </c>
-      <c r="O47" t="s">
-        <v>54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="X47" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="Y47" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>56232</v>
       </c>
-      <c r="B48" t="n">
-        <v>155067</v>
-      </c>
-      <c r="C48" t="s">
-        <v>461</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="J48" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="K48" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="L48" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
-      </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>433</v>
+      </c>
+      <c r="O48" t="s">
+        <v>61</v>
+      </c>
       <c r="P48" t="n">
         <v>5</v>
       </c>
@@ -5207,74 +5049,66 @@
         <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="X48" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="Y48" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>56232</v>
       </c>
-      <c r="B49" t="n">
-        <v>155068</v>
-      </c>
-      <c r="C49" t="s">
-        <v>468</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="J49" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="K49" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="L49" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
-      </c>
-      <c r="N49" t="s">
-        <v>474</v>
-      </c>
-      <c r="O49" t="s">
-        <v>377</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
       <c r="P49" t="n">
         <v>5</v>
       </c>
@@ -5294,63 +5128,67 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>434</v>
+      </c>
+      <c r="X49" t="s">
+        <v>435</v>
+      </c>
       <c r="Y49" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>56232</v>
       </c>
-      <c r="B50" t="n">
-        <v>155069</v>
-      </c>
-      <c r="C50" t="s">
-        <v>475</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="J50" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="K50" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="L50" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="O50" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
       </c>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
       <c r="S50" t="n">
         <v>5</v>
       </c>
@@ -5361,14 +5199,10 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>481</v>
-      </c>
-      <c r="X50" t="s">
-        <v>482</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51">
@@ -5381,47 +5215,43 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="J51" t="s">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="K51" t="s">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="L51" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="O51" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
       </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
       <c r="S51" t="n">
         <v>5</v>
       </c>
@@ -5433,60 +5263,56 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="X51" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="Y51" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>56232</v>
       </c>
-      <c r="B52" t="n">
-        <v>155070</v>
-      </c>
-      <c r="C52" t="s">
-        <v>491</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>493</v>
+        <v>458</v>
       </c>
       <c r="J52" t="s">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="K52" t="s">
-        <v>495</v>
+        <v>460</v>
       </c>
       <c r="L52" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>497</v>
+        <v>462</v>
       </c>
       <c r="O52" t="s">
-        <v>377</v>
+        <v>71</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5507,73 +5333,73 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>454</v>
+      </c>
+      <c r="X52" t="s">
+        <v>455</v>
+      </c>
       <c r="Y52" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>56232</v>
       </c>
-      <c r="B53" t="n">
-        <v>155071</v>
-      </c>
-      <c r="C53" t="s">
-        <v>498</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="J53" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="K53" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="L53" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="O53" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5581,54 +5407,50 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>56232</v>
       </c>
-      <c r="B54" t="n">
-        <v>6594</v>
-      </c>
-      <c r="C54" t="s">
-        <v>506</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="J54" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
       <c r="K54" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="L54" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>512</v>
+        <v>469</v>
       </c>
       <c r="O54" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5637,7 +5459,7 @@
         <v>5</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -5652,7 +5474,399 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>56232</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>476</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>477</v>
+      </c>
+      <c r="J55" t="s">
+        <v>478</v>
+      </c>
+      <c r="K55" t="s">
+        <v>479</v>
+      </c>
+      <c r="L55" t="s">
+        <v>480</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>481</v>
+      </c>
+      <c r="O55" t="s">
+        <v>71</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56232</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>482</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>483</v>
+      </c>
+      <c r="J56" t="s">
+        <v>484</v>
+      </c>
+      <c r="K56" t="s">
+        <v>485</v>
+      </c>
+      <c r="L56" t="s">
+        <v>486</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>487</v>
+      </c>
+      <c r="O56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56232</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>488</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>489</v>
+      </c>
+      <c r="J57" t="s">
+        <v>490</v>
+      </c>
+      <c r="K57" t="s">
+        <v>491</v>
+      </c>
+      <c r="L57" t="s">
+        <v>492</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>493</v>
+      </c>
+      <c r="O57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56232</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>495</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>496</v>
+      </c>
+      <c r="J58" t="s">
+        <v>497</v>
+      </c>
+      <c r="K58" t="s">
+        <v>498</v>
+      </c>
+      <c r="L58" t="s">
+        <v>499</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>500</v>
+      </c>
+      <c r="O58" t="s">
+        <v>358</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>56232</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>501</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>502</v>
+      </c>
+      <c r="J59" t="s">
+        <v>503</v>
+      </c>
+      <c r="K59" t="s">
+        <v>504</v>
+      </c>
+      <c r="L59" t="s">
+        <v>505</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>506</v>
+      </c>
+      <c r="O59" t="s">
+        <v>71</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>56232</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>508</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>509</v>
+      </c>
+      <c r="J60" t="s">
+        <v>510</v>
+      </c>
+      <c r="K60" t="s">
         <v>511</v>
+      </c>
+      <c r="L60" t="s">
+        <v>512</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>513</v>
+      </c>
+      <c r="O60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
